--- a/exercises/ex001.Interpolation.xlsx
+++ b/exercises/ex001.Interpolation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12489312-8930-4856-8AFD-878AA42D2925}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064CDB85-1282-4EE5-BB05-E9F45761FE87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="2955" windowWidth="28770" windowHeight="17370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="1140" windowWidth="22410" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="interpolation" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -9066,7 +9068,7 @@
   <dimension ref="A1:AH230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9080,7 +9082,7 @@
       </c>
       <c r="G1" t="str">
         <f>[1]!getUFVersion()</f>
-        <v>7.11</v>
+        <v>7.14</v>
       </c>
       <c r="Q1">
         <v>2</v>
